--- a/说明及报告/减速器轴结构设计校核.xlsx
+++ b/说明及报告/减速器轴结构设计校核.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
   <si>
     <t>齿轮1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,10 @@
   </si>
   <si>
     <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\alpha*T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1365,12 +1369,12 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C24">
-        <f>A7/2+D22+C22/2</f>
-        <v>44.25</v>
+        <f>A7/2+D22+C22-C20/2</f>
+        <v>47.5</v>
       </c>
       <c r="E24">
-        <f>A7/2+E22+F22/2</f>
-        <v>112.5</v>
+        <f>A7/2+D22+E22+F22/2</f>
+        <v>122.5</v>
       </c>
       <c r="H24">
         <f>D7/2+H22-J20/2</f>
@@ -1415,12 +1419,12 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C27">
-        <f>(-C3*A5/2-B3*E24)/(C24+E24)</f>
-        <v>-0.5030989601275917</v>
+        <f>(C3*A5/2+B3*E24)/(C24+E24)</f>
+        <v>0.4972397764705882</v>
       </c>
       <c r="E27">
-        <f>(-B3*C24+C3*A5/2)/(C24+E24)</f>
-        <v>-6.3901039872408277E-2</v>
+        <f>(B3*C24-C3*A5/2)/(C24+E24)</f>
+        <v>6.9760223529411747E-2</v>
       </c>
       <c r="H27">
         <f>(-F3*D5/2+E3*(I24+J24)-I3*G5/2-H3*J24)/(H24+I24+J24)</f>
@@ -1462,11 +1466,11 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C29">
         <f>-A3*E24/(C24+E24)</f>
-        <v>-1.016267942583732</v>
+        <v>-1.0203529411764705</v>
       </c>
       <c r="E29">
         <f>-A3*C24/(C24+E24)</f>
-        <v>-0.39973205741626788</v>
+        <v>-0.39564705882352935</v>
       </c>
       <c r="H29">
         <f>(D3*(I24+J24)+G3*J24)/(H24+I24+J24)</f>
@@ -1514,11 +1518,11 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C32">
         <f>C27*C24</f>
-        <v>-22.262128985645933</v>
+        <v>23.61888938235294</v>
       </c>
       <c r="E32">
         <f>E27*E24</f>
-        <v>-7.1888669856459311</v>
+        <v>8.5456273823529383</v>
       </c>
       <c r="H32">
         <f>H24*H27</f>
@@ -1545,7 +1549,7 @@
         <v>81.856512499999994</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>94</v>
       </c>
@@ -1559,10 +1563,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C34">
         <f>C29*C24</f>
-        <v>-44.969856459330138</v>
+        <v>-48.466764705882348</v>
       </c>
       <c r="H34">
         <f>H29*H24</f>
@@ -1577,7 +1581,7 @@
         <v>-119.37455</v>
       </c>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>95</v>
       </c>
@@ -1603,14 +1607,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C36">
         <f>SQRT(C32^2+C34^2)</f>
-        <v>50.178584843997875</v>
+        <v>53.915482161538606</v>
       </c>
       <c r="E36">
         <f>SQRT(E32^2+C34^2)</f>
-        <v>45.540836603097958</v>
+        <v>49.214378269093103</v>
       </c>
       <c r="H36">
         <f>SQRT(H32^2+H34^2)</f>
@@ -1637,7 +1641,10 @@
         <v>144.74381446668164</v>
       </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
       <c r="C37" t="s">
         <v>97</v>
       </c>
@@ -1662,15 +1669,22 @@
       <c r="O37" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>B10*O4</f>
+        <v>18.983399999999996</v>
+      </c>
       <c r="C38">
         <f>SQRT(C36^2+(B10*O4)^2)</f>
-        <v>53.649416143200412</v>
+        <v>57.159852101551024</v>
       </c>
       <c r="E38">
-        <f>SQRT(E36^2+(B10*O4)^2)</f>
-        <v>49.339003578001723</v>
+        <f>E36</f>
+        <v>49.214378269093103</v>
       </c>
       <c r="H38">
         <f>SQRT(H36^2+(B10*P4)^2)</f>
@@ -1689,15 +1703,19 @@
         <v>162.33364121572404</v>
       </c>
       <c r="M38">
-        <f>SQRT(M36^2+(B10*Q4)^2)</f>
-        <v>251.72333554617089</v>
+        <f>M36</f>
+        <v>122.75708132116108</v>
       </c>
       <c r="O38">
         <f>SQRT(O36^2+(B10*Q4)^2)</f>
         <v>263.14655321771772</v>
       </c>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <f>B10*Q4</f>
+        <v>219.76199999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>63</v>
       </c>
@@ -1708,10 +1726,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <f>(A38/0.1/C10)^(1/3)*10</f>
+        <v>15.112527464436649</v>
+      </c>
       <c r="C40" s="6">
-        <f>(MAX(C38,E38)/0.1/C10)^(1/3)*10</f>
-        <v>21.366535242746064</v>
+        <f>(MAX(A38,C38,E38)/0.1/C10)^(1/3)*10</f>
+        <v>21.822749574254185</v>
       </c>
       <c r="H40" s="6">
         <f>(MAX(H38,I38,J38,K38)/0.1/C10)^(1/3)*10</f>
@@ -1721,8 +1743,12 @@
         <f>(MAX(M38,O38)/0.1/C10)^(1/3)*10</f>
         <v>36.303207567110533</v>
       </c>
-    </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <f>(Q38/0.1/C10)^(1/3)*10</f>
+        <v>34.187181929868316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>73</v>
       </c>
@@ -1733,7 +1759,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>75</v>
       </c>
@@ -1771,10 +1797,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <f>8*O4/3.14/20^3*1000</f>
+        <v>10.423566878980891</v>
+      </c>
       <c r="C43">
         <f>32*MAX(C36,E36)/3.14/A5^3*1000</f>
-        <v>5.1733253903123462</v>
+        <v>5.558593046503252</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1810,15 +1843,22 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <f>8*Q4/3.14/J5^3*1000</f>
-        <v>8.4749547849335527E-2</v>
+        <f>8*Q4/3.14/43^3*1000</f>
+        <v>12.141702220827568</v>
       </c>
       <c r="P43">
         <f>O43</f>
-        <v>8.4749547849335527E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+        <v>12.141702220827568</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f>8*Q4/3.14/30^3*1000</f>
+        <v>35.753715498938426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>74</v>
       </c>
@@ -1838,10 +1878,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <f>M10*E10/(I10/K10/L10*B43+G10*B43)</f>
+        <v>6.0149214363909351</v>
+      </c>
       <c r="C45">
         <f>M10*D10/(H10/J10/L10*C43+F10*D43)</f>
-        <v>20.283243419854323</v>
+        <v>18.877406081711218</v>
       </c>
       <c r="D45">
         <f>M10*E10/(I10/K10/L10*E43+G10*F43)</f>
@@ -1860,11 +1907,18 @@
         <v>810.27867388215429</v>
       </c>
       <c r="N45">
-        <f>M10*E10/(I10/K10/L10*N43+G10*O43)</f>
-        <v>16519.262173396673</v>
-      </c>
-    </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+        <f>M10*E10/(I10/K10/L10*O43+G10*P43)</f>
+        <v>5.1637682034803971</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f>M10*E10/(I10/K10/L10*R43+G10*R43)</f>
+        <v>1.753578194296989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>81</v>
       </c>
@@ -1875,10 +1929,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <f>B45</f>
+        <v>6.0149214363909351</v>
+      </c>
       <c r="C47" s="6">
         <f>C45*D45/SQRT(C45^2+D45^2)</f>
-        <v>19.567603283687681</v>
+        <v>18.296425035872677</v>
       </c>
       <c r="H47" s="6">
         <f>H45*I45/SQRT(H45^2+I45^2)</f>
@@ -1886,7 +1944,11 @@
       </c>
       <c r="M47" s="6">
         <f>M45*N45/SQRT(M45^2+N45^2)</f>
-        <v>809.30568219079998</v>
+        <v>5.1636633487143175</v>
+      </c>
+      <c r="R47" s="6">
+        <f>R45</f>
+        <v>1.753578194296989</v>
       </c>
     </row>
   </sheetData>

--- a/说明及报告/减速器轴结构设计校核.xlsx
+++ b/说明及报告/减速器轴结构设计校核.xlsx
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
